--- a/assets/docs/realisations/Baptiste_FAOUEN_BTS_SIO_Annexe_8_1_Tableau_de_synthese_Epreuve_E5_BTS_SIO_2025.xlsx
+++ b/assets/docs/realisations/Baptiste_FAOUEN_BTS_SIO_Annexe_8_1_Tableau_de_synthese_Epreuve_E5_BTS_SIO_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a08f5c8ff962894/Documents/Ensitech 24/PORTFOLIO_aide/Annexe - E5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faoue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_CFF272E34BD8DAC526561DA1E8301D2C05FFBAB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF4BC3CA-ADD8-402F-B6ED-C70AEC5E5A4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290A3E7-20E9-4787-8336-B97A79414D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -265,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -715,12 +715,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -758,133 +798,148 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,10 +958,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,8 +1252,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1216,108 +1267,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="33" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="29" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1372,16 +1423,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1419,28 +1470,28 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7"/>
@@ -1490,7 +1541,7 @@
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>45566</v>
       </c>
       <c r="C11" s="7"/>
@@ -1504,7 +1555,9 @@
       <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1545,7 +1598,7 @@
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="7"/>
@@ -1559,7 +1612,9 @@
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1600,7 +1655,7 @@
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>45717</v>
       </c>
       <c r="C13" s="7"/>
@@ -1647,22 +1702,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>45536</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I14"/>
@@ -1702,16 +1757,16 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1749,22 +1804,22 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1802,20 +1857,20 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>2024</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I17"/>
@@ -1855,16 +1910,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1902,22 +1957,22 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1955,20 +2010,20 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I20"/>
@@ -2661,6 +2716,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A6:A7"/>
@@ -2668,11 +2728,6 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
